--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.01</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.93</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.14</v>
+        <v>9.51</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>3.93</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>9.51</v>
+        <v>4.14</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9.550000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
         </is>
       </c>
     </row>
@@ -3122,6 +3122,190 @@
       <c r="V29" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-wasl/8AVXwSdU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45205.63888888889</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:17</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-khorfakkan/dfjBioRT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45205.63888888889</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>04/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:11</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>04/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>04/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-hatta/Klajd9Cb/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>3.93</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>9.51</v>
+        <v>4.14</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>9.550000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.01</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.93</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.14</v>
+        <v>9.51</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
         </is>
       </c>
     </row>
@@ -3306,6 +3306,98 @@
       <c r="V31" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-hatta/Klajd9Cb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45205.75</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-al-wahda/tb0nckch/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,6 +3401,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45206.63888888889</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:14</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:14</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:14</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-ajman/SEbfeTR4/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3493,6 +3493,98 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-jazira-shabab-al-ahli-dubai/lUn3g7dH/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,6 +3585,98 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45207.63888888889</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Emirates Club</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>04/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:10</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>04/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:10</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>04/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:10</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-al-sharjah/65cbfmsB/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.01</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.93</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.14</v>
+        <v>9.51</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>3.93</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>9.51</v>
+        <v>4.14</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9.550000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
         </is>
       </c>
     </row>
@@ -3674,6 +3674,98 @@
       <c r="V35" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-al-sharjah/65cbfmsB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:53</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:53</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>02/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:53</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-ain/2Xj7hRBN/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,63 +1409,63 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.96</v>
+        <v>3.31</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8.74</v>
+        <v>3.66</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.27</v>
+        <v>3.67</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>6.07</v>
+        <v>3.73</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-ain/h0S0k1aE/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ittihad-kalba/678yqaxr/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.31</v>
+        <v>6.96</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.66</v>
+        <v>8.74</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.67</v>
+        <v>5.27</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.73</v>
+        <v>6.07</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.01</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ittihad-kalba/678yqaxr/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-ain/h0S0k1aE/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>3.33</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.73</v>
+        <v>4.23</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.77</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.93</v>
+        <v>4.42</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/09/2023 15:17</t>
+          <t>23/09/2023 15:11</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/09/2023 15:17</t>
+          <t>23/09/2023 15:11</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-sharjah/bytlvyiD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-jazira/x6s0ohbt/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>3.33</v>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.23</v>
+        <v>3.73</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.77</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.42</v>
+        <v>3.93</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/09/2023 15:11</t>
+          <t>23/09/2023 15:17</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/09/2023 15:11</t>
+          <t>23/09/2023 15:17</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-jazira/x6s0ohbt/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-sharjah/bytlvyiD/</t>
         </is>
       </c>
     </row>
@@ -2229,46 +2229,46 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.36</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.24</v>
+        <v>6.67</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>24/09/2023 14:22</t>
+          <t>24/09/2023 15:15</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>5.48</v>
+        <v>5.03</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>6.54</v>
+        <v>4.85</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,15 +2276,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>6.99</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>10.02</v>
+        <v>1.44</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-hatta/pWp8qWSh/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-shabab-al-ahli-dubai/6un4pCDn/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Shabab Al-Ahli Dubai</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>6.4</v>
+        <v>1.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6.67</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>24/09/2023 14:22</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>24/09/2023 15:15</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>24/09/2023 15:15</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:15</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-shabab-al-ahli-dubai/6un4pCDn/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-hatta/pWp8qWSh/</t>
         </is>
       </c>
     </row>
@@ -3766,6 +3766,650 @@
       <c r="V36" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-ain/2Xj7hRBN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45226.61458333334</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:36</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45226.61458333334</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45226.72916666666</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45226.72916666666</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:06</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:06</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:06</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45227.61458333334</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Emirates Club</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:08</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-emirates-club/EBKPA8Ri/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45227.61458333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>23/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-jazira/lrSy86BA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45227.72916666666</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:27</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:27</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:27</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-sharjah-bani-yas/6JxX8nd4/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Shabab Al-Ahli Dubai</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
       <c r="J20" t="n">
-        <v>6.4</v>
+        <v>1.36</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6.67</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>24/09/2023 14:22</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>24/09/2023 15:15</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>24/09/2023 15:15</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:15</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-shabab-al-ahli-dubai/6un4pCDn/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-hatta/pWp8qWSh/</t>
         </is>
       </c>
     </row>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.36</v>
+        <v>6.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>6.67</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/09/2023 14:22</t>
+          <t>24/09/2023 15:15</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>5.48</v>
+        <v>5.03</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>6.54</v>
+        <v>4.85</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,15 +2368,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>6.99</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>10.02</v>
+        <v>1.44</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-hatta/pWp8qWSh/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-shabab-al-ahli-dubai/6un4pCDn/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,98 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-sharjah-bani-yas/6JxX8nd4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45232.57291666666</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-jazira-al-sharjah/tt7G0O3p/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.67</v>
+        <v>6.3</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.36</v>
+        <v>10.27</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.68</v>
+        <v>4.97</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.82</v>
+        <v>7.25</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:36</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.36</v>
+        <v>1.38</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.79</v>
+        <v>1.22</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 13:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>6.3</v>
+        <v>2.67</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>10.27</v>
+        <v>2.36</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.97</v>
+        <v>3.68</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>7.25</v>
+        <v>3.82</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:36</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.38</v>
+        <v>2.36</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.22</v>
+        <v>2.79</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/10/2023 13:29</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.16</v>
+        <v>6.03</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.11</v>
+        <v>6.39</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>6.03</v>
+        <v>4.16</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>6.39</v>
+        <v>4.11</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
         </is>
       </c>
     </row>
@@ -4502,6 +4502,98 @@
       <c r="V44" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-jazira-al-sharjah/tt7G0O3p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45232.6875</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>02/11/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>02/11/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>02/11/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-al-ain/zaUm54eT/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,63 +1409,63 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.31</v>
+        <v>6.96</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.66</v>
+        <v>8.74</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.67</v>
+        <v>5.27</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.73</v>
+        <v>6.07</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.01</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ittihad-kalba/678yqaxr/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-ain/h0S0k1aE/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.96</v>
+        <v>3.31</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>8.74</v>
+        <v>3.66</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>5.27</v>
+        <v>3.67</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>6.07</v>
+        <v>3.73</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-ain/h0S0k1aE/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ittihad-kalba/678yqaxr/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>6.3</v>
+        <v>2.67</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>10.27</v>
+        <v>2.36</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.97</v>
+        <v>3.68</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>7.25</v>
+        <v>3.82</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:36</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>1.38</v>
+        <v>2.36</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1.22</v>
+        <v>2.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/10/2023 13:29</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.67</v>
+        <v>6.3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.36</v>
+        <v>10.27</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.68</v>
+        <v>4.97</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.82</v>
+        <v>7.25</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:36</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.36</v>
+        <v>1.38</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.79</v>
+        <v>1.22</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 13:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,190 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-al-ain/zaUm54eT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45233.57291666666</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:37</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:37</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:36</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-bataeh/nwb6NoBc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45233.57291666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Emirates Club</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>02/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:17</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>02/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:17</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>02/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:17</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-hatta/SlF3M5Q3/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.82</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.07</v>
+        <v>5.14</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.08</v>
+        <v>6.36</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.17</v>
+        <v>6.83</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.94</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-hatta/2iyRWXRk/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-emirates-club/ht0Fw402/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.82</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.14</v>
+        <v>4.07</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>6.36</v>
+        <v>4.08</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.83</v>
+        <v>4.17</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>9.550000000000001</v>
+        <v>3.94</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-emirates-club/ht0Fw402/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-hatta/2iyRWXRk/</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4778,98 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-hatta/SlF3M5Q3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45233.6875</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:24</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:24</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-shabab-al-ahli-dubai/fqBKarJj/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Bani Yas</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.22</v>
+        <v>3.66</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>6</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18/08/2023 18:25</t>
+          <t>18/08/2023 18:29</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.74</v>
+        <v>3.74</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>6.19</v>
+        <v>4.6</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>18/08/2023 18:25</t>
+          <t>18/08/2023 18:29</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>10.67</v>
+        <v>1.94</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>12.14</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>18/08/2023 18:25</t>
+          <t>18/08/2023 18:29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-bani-yas/6q4JxOF8/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-shabab-al-ahli-dubai/vc2Rz2pL/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.66</v>
+        <v>1.22</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18/08/2023 18:29</t>
+          <t>18/08/2023 18:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.74</v>
+        <v>6.74</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.6</v>
+        <v>6.19</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>18/08/2023 18:29</t>
+          <t>18/08/2023 18:25</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.94</v>
+        <v>10.67</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>12.14</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>18/08/2023 18:29</t>
+          <t>18/08/2023 18:25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-shabab-al-ahli-dubai/vc2Rz2pL/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-bani-yas/6q4JxOF8/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.82</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.14</v>
+        <v>4.07</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>6.36</v>
+        <v>4.08</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.83</v>
+        <v>4.17</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>9.550000000000001</v>
+        <v>3.94</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-emirates-club/ht0Fw402/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-hatta/2iyRWXRk/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.82</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.07</v>
+        <v>5.14</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.08</v>
+        <v>6.36</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.17</v>
+        <v>6.83</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.94</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-hatta/2iyRWXRk/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-emirates-club/ht0Fw402/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>3.93</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>9.51</v>
+        <v>4.14</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>9.550000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.01</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.93</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.14</v>
+        <v>9.51</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.66</v>
+        <v>2.21</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>25/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.85</v>
+        <v>2.92</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/09/2023 14:35</t>
+          <t>29/09/2023 15:12</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>25/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.18</v>
+        <v>3.88</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/09/2023 15:15</t>
+          <t>29/09/2023 15:17</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.56</v>
+        <v>3.08</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>25/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.72</v>
+        <v>2.25</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/09/2023 14:35</t>
+          <t>29/09/2023 15:12</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-emirates-club/UJWTv8sO/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-ittihad-kalba/bZAsbVsn/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.21</v>
+        <v>1.66</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>25/09/2023 13:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.92</v>
+        <v>1.85</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/09/2023 15:12</t>
+          <t>29/09/2023 14:35</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.61</v>
+        <v>4.22</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>25/09/2023 13:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.88</v>
+        <v>4.18</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/09/2023 15:17</t>
+          <t>29/09/2023 15:15</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.08</v>
+        <v>4.56</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>25/09/2023 13:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.25</v>
+        <v>3.72</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/09/2023 15:12</t>
+          <t>29/09/2023 14:35</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-ittihad-kalba/bZAsbVsn/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-emirates-club/UJWTv8sO/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.67</v>
+        <v>6.3</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.36</v>
+        <v>10.27</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.68</v>
+        <v>4.97</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.82</v>
+        <v>7.25</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:36</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.36</v>
+        <v>1.38</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.79</v>
+        <v>1.22</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 13:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>6.3</v>
+        <v>2.67</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>10.27</v>
+        <v>2.36</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.97</v>
+        <v>3.68</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>7.25</v>
+        <v>3.82</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:36</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.38</v>
+        <v>2.36</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.22</v>
+        <v>2.79</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/10/2023 13:29</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.15</v>
+        <v>5.34</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.12</v>
+        <v>6.2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:08</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>8.300000000000001</v>
+        <v>4.82</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>9.91</v>
+        <v>5.34</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>13.92</v>
+        <v>1.5</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>16.92</v>
+        <v>1.42</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-emirates-club/EBKPA8Ri/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-jazira/lrSy86BA/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>5.34</v>
+        <v>1.15</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6.2</v>
+        <v>1.12</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:08</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.82</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.34</v>
+        <v>9.91</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>13.92</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.42</v>
+        <v>16.92</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-jazira/lrSy86BA/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-emirates-club/EBKPA8Ri/</t>
         </is>
       </c>
     </row>
@@ -4870,6 +4870,190 @@
       <c r="V48" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-shabab-al-ahli-dubai/fqBKarJj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45234.57291666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-khorfakkan/d8Vq6ptN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45234.6875</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-al-wahda/8na2ORei/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>6.03</v>
+        <v>4.16</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>6.39</v>
+        <v>4.11</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.16</v>
+        <v>6.03</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.11</v>
+        <v>6.39</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
         </is>
       </c>
     </row>
@@ -5054,6 +5054,98 @@
       <c r="V50" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-al-wahda/8na2ORei/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45253.6875</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>23/11/2023 16:15</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/11/2023 16:15</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>23/11/2023 16:15</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-al-sharjah/02DBKqeG/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>6.3</v>
+        <v>2.67</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>10.27</v>
+        <v>2.36</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.97</v>
+        <v>3.68</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>7.25</v>
+        <v>3.82</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:36</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>1.38</v>
+        <v>2.36</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1.22</v>
+        <v>2.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/10/2023 13:29</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.67</v>
+        <v>6.3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.36</v>
+        <v>10.27</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.68</v>
+        <v>4.97</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.82</v>
+        <v>7.25</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:36</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.36</v>
+        <v>1.38</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.79</v>
+        <v>1.22</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 13:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
         </is>
       </c>
     </row>
@@ -5146,6 +5146,558 @@
       <c r="V51" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-al-sharjah/02DBKqeG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45255.57291666666</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Emirates Club</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:36</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:36</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:36</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-emirates-club/63dfCL2d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45255.57291666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-bani-yas/6uE7LPuA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45255.6875</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:26</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-jazira-al-wasl/bwgnEsYq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45256.57291666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-ajman/dU6KINPS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45256.57291666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-nasr/E5HFJ3AM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45256.6875</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-ain/SCcjD1mj/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>1.22</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4.06</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18/08/2023 15:50</t>
+          <t>18/08/2023 15:53</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.67</v>
+        <v>6.71</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.72</v>
+        <v>6.55</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18/08/2023 15:50</t>
+          <t>18/08/2023 15:58</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>10.86</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>10.1</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>18/08/2023 15:50</t>
+          <t>18/08/2023 15:58</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-sharjah/l8ZYUBd2/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-al-bataeh/063NyrVE/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.22</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>4.06</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18/08/2023 15:53</t>
+          <t>18/08/2023 15:50</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6.71</v>
+        <v>3.67</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>6.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>18/08/2023 15:58</t>
+          <t>18/08/2023 15:50</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>10.86</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>10.1</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>18/08/2023 15:58</t>
+          <t>18/08/2023 15:50</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-al-bataeh/063NyrVE/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-sharjah/l8ZYUBd2/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.66</v>
+        <v>1.22</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18/08/2023 18:29</t>
+          <t>18/08/2023 18:25</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.74</v>
+        <v>6.74</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.6</v>
+        <v>6.19</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>18/08/2023 18:29</t>
+          <t>18/08/2023 18:25</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.94</v>
+        <v>10.67</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>12.14</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>18/08/2023 18:29</t>
+          <t>18/08/2023 18:25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-shabab-al-ahli-dubai/vc2Rz2pL/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-bani-yas/6q4JxOF8/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Bani Yas</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.22</v>
+        <v>3.66</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.23</v>
+        <v>6</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18/08/2023 18:25</t>
+          <t>18/08/2023 18:29</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.74</v>
+        <v>3.74</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>6.19</v>
+        <v>4.6</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>18/08/2023 18:25</t>
+          <t>18/08/2023 18:29</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>10.67</v>
+        <v>1.94</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>12.14</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>18/08/2023 18:25</t>
+          <t>18/08/2023 18:29</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-bani-yas/6q4JxOF8/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-shabab-al-ahli-dubai/vc2Rz2pL/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>3.33</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.23</v>
+        <v>3.73</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.77</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.42</v>
+        <v>3.93</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/09/2023 15:11</t>
+          <t>23/09/2023 15:17</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/09/2023 15:11</t>
+          <t>23/09/2023 15:17</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-jazira/x6s0ohbt/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-sharjah/bytlvyiD/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>3.33</v>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.73</v>
+        <v>4.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.77</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.93</v>
+        <v>4.42</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/09/2023 15:17</t>
+          <t>23/09/2023 15:11</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/09/2023 15:17</t>
+          <t>23/09/2023 15:11</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-sharjah/bytlvyiD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-jazira/x6s0ohbt/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.01</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.93</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.14</v>
+        <v>9.51</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>3.93</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>9.51</v>
+        <v>4.14</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9.550000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.21</v>
+        <v>1.66</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>25/09/2023 13:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.92</v>
+        <v>1.85</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/09/2023 15:12</t>
+          <t>29/09/2023 14:35</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.61</v>
+        <v>4.22</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>25/09/2023 13:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.88</v>
+        <v>4.18</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/09/2023 15:17</t>
+          <t>29/09/2023 15:15</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.08</v>
+        <v>4.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>25/09/2023 13:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.25</v>
+        <v>3.72</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/09/2023 15:12</t>
+          <t>29/09/2023 14:35</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-ittihad-kalba/bZAsbVsn/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-emirates-club/UJWTv8sO/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.66</v>
+        <v>2.21</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>25/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.85</v>
+        <v>2.92</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/09/2023 14:35</t>
+          <t>29/09/2023 15:12</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>25/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.18</v>
+        <v>3.88</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/09/2023 15:15</t>
+          <t>29/09/2023 15:17</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.56</v>
+        <v>3.08</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>25/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.72</v>
+        <v>2.25</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/09/2023 14:35</t>
+          <t>29/09/2023 15:12</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-emirates-club/UJWTv8sO/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-ittihad-kalba/bZAsbVsn/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>1.59</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.35</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>06/10/2023 15:11</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>04/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>06/10/2023 15:16</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>06/10/2023 15:17</t>
-        </is>
-      </c>
       <c r="R30" t="n">
-        <v>2.53</v>
+        <v>5.07</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.99</v>
+        <v>6.34</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>06/10/2023 15:17</t>
+          <t>06/10/2023 15:16</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-khorfakkan/dfjBioRT/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-hatta/Klajd9Cb/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.59</v>
+        <v>2.63</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>04/10/2023 05:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>06/10/2023 15:11</t>
+          <t>06/10/2023 15:16</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>04/10/2023 05:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.98</v>
+        <v>3.53</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>06/10/2023 15:16</t>
+          <t>06/10/2023 15:17</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.07</v>
+        <v>2.53</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>04/10/2023 05:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.34</v>
+        <v>2.99</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>06/10/2023 15:16</t>
+          <t>06/10/2023 15:17</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-hatta/Klajd9Cb/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-khorfakkan/dfjBioRT/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>5.34</v>
+        <v>1.15</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>6.2</v>
+        <v>1.12</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:08</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.82</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>5.34</v>
+        <v>9.91</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.5</v>
+        <v>13.92</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.42</v>
+        <v>16.92</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-jazira/lrSy86BA/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-emirates-club/EBKPA8Ri/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.15</v>
+        <v>5.34</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.12</v>
+        <v>6.2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:08</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>8.300000000000001</v>
+        <v>4.82</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>9.91</v>
+        <v>5.34</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>13.92</v>
+        <v>1.5</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>16.92</v>
+        <v>1.42</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-emirates-club/EBKPA8Ri/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-jazira/lrSy86BA/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.39</v>
+        <v>2.24</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.18</v>
+        <v>2.82</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>26/11/2023 13:41</t>
+          <t>26/11/2023 13:35</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.6</v>
+        <v>3.76</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>26/11/2023 13:41</t>
+          <t>26/11/2023 13:35</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.24</v>
+        <v>2.36</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-ajman/dU6KINPS/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-nasr/E5HFJ3AM/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>26/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>26/11/2023 13:35</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>20/11/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P56" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:35</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>20/11/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:35</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-nasr/E5HFJ3AM/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-ajman/dU6KINPS/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,190 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-ain/SCcjD1mj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45261.57291666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45261.57291666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Emirates Club</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.22</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>4.06</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18/08/2023 15:53</t>
+          <t>18/08/2023 15:50</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6.71</v>
+        <v>3.67</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>6.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18/08/2023 15:58</t>
+          <t>18/08/2023 15:50</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>10.86</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>10.1</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>18/08/2023 15:58</t>
+          <t>18/08/2023 15:50</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-al-bataeh/063NyrVE/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-sharjah/l8ZYUBd2/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>1.22</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4.06</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18/08/2023 15:50</t>
+          <t>18/08/2023 15:53</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.67</v>
+        <v>6.71</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.72</v>
+        <v>6.55</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>18/08/2023 15:50</t>
+          <t>18/08/2023 15:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>10.86</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>10.1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>18/08/2023 15:50</t>
+          <t>18/08/2023 15:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-sharjah/l8ZYUBd2/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-al-bataeh/063NyrVE/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>3.93</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>9.51</v>
+        <v>4.14</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>9.550000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.01</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.93</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.14</v>
+        <v>9.51</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>1.67</v>
+        <v>3.65</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,48 +5748,48 @@
         </is>
       </c>
       <c r="L58" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>1.86</v>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:42</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>28/11/2023 21:13</t>
         </is>
       </c>
-      <c r="P58" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:42</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>3.65</v>
+        <v>1.83</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/12/2023 13:42</t>
+          <t>01/12/2023 13:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,163 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
         <v>3.65</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45261.6875</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>3.74</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:41</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:44</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:43</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:22</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>01/12/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-wahda/E5woZrA9/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/10/2023 17:43</t>
+          <t>02/11/2023 16:23</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/11/2023 13:37</t>
+          <t>03/11/2023 13:17</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.36</v>
+        <v>3.87</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/10/2023 17:43</t>
+          <t>02/11/2023 16:23</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.09</v>
+        <v>4.38</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/11/2023 13:37</t>
+          <t>03/11/2023 13:17</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.86</v>
+        <v>3.58</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/10/2023 17:43</t>
+          <t>02/11/2023 16:23</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.2</v>
+        <v>4.33</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/11/2023 13:36</t>
+          <t>03/11/2023 13:17</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-bataeh/nwb6NoBc/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-hatta/SlF3M5Q3/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Hatta</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
       <c r="J47" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>02/11/2023 16:23</t>
+          <t>27/10/2023 17:43</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/11/2023 13:17</t>
+          <t>03/11/2023 13:37</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.87</v>
+        <v>4.36</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>02/11/2023 16:23</t>
+          <t>27/10/2023 17:43</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.38</v>
+        <v>4.09</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/11/2023 13:17</t>
+          <t>03/11/2023 13:37</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.58</v>
+        <v>4.86</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>02/11/2023 16:23</t>
+          <t>27/10/2023 17:43</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.33</v>
+        <v>5.2</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/11/2023 13:17</t>
+          <t>03/11/2023 13:36</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-hatta/SlF3M5Q3/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-bataeh/nwb6NoBc/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
         <v>3.65</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:41</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:44</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/12/2023 13:43</t>
+          <t>01/12/2023 13:42</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>1.67</v>
+        <v>3.65</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,48 +5840,48 @@
         </is>
       </c>
       <c r="L59" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>1.86</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:42</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>28/11/2023 21:13</t>
         </is>
       </c>
-      <c r="P59" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:42</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
       <c r="T59" t="n">
-        <v>3.65</v>
+        <v>1.83</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>01/12/2023 13:42</t>
+          <t>01/12/2023 13:43</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
         </is>
       </c>
     </row>
@@ -5974,6 +5974,98 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-wahda/E5woZrA9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45262.57291666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:36</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-al-bataeh/hdxkY2PF/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.01</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.93</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.14</v>
+        <v>9.51</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>3.93</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>9.51</v>
+        <v>4.14</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9.550000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.59</v>
+        <v>2.63</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>04/10/2023 05:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>06/10/2023 15:11</t>
+          <t>06/10/2023 15:16</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>04/10/2023 05:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.98</v>
+        <v>3.53</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>06/10/2023 15:16</t>
+          <t>06/10/2023 15:17</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.07</v>
+        <v>2.53</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>04/10/2023 05:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.34</v>
+        <v>2.99</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>06/10/2023 15:16</t>
+          <t>06/10/2023 15:17</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-hatta/Klajd9Cb/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-khorfakkan/dfjBioRT/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.63</v>
+        <v>1.59</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 05:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.35</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>06/10/2023 15:11</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>04/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>06/10/2023 15:16</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>06/10/2023 15:17</t>
-        </is>
-      </c>
       <c r="R31" t="n">
-        <v>2.53</v>
+        <v>5.07</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 05:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.99</v>
+        <v>6.34</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>06/10/2023 15:17</t>
+          <t>06/10/2023 15:16</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-khorfakkan/dfjBioRT/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-hatta/Klajd9Cb/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,98 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-al-bataeh/hdxkY2PF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45262.6875</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-al-jazira/tKgREEOf/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>3.33</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.73</v>
+        <v>4.23</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.77</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.93</v>
+        <v>4.42</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/09/2023 15:17</t>
+          <t>23/09/2023 15:11</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/09/2023 15:17</t>
+          <t>23/09/2023 15:11</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-sharjah/bytlvyiD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-jazira/x6s0ohbt/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>3.33</v>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.23</v>
+        <v>3.73</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.77</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.42</v>
+        <v>3.93</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/09/2023 15:11</t>
+          <t>23/09/2023 15:17</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/09/2023 15:11</t>
+          <t>23/09/2023 15:17</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-jazira/x6s0ohbt/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-sharjah/bytlvyiD/</t>
         </is>
       </c>
     </row>
@@ -2229,46 +2229,46 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.36</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.24</v>
+        <v>6.67</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>24/09/2023 14:22</t>
+          <t>24/09/2023 15:15</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>5.48</v>
+        <v>5.03</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>6.54</v>
+        <v>4.85</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,15 +2276,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>6.99</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>10.02</v>
+        <v>1.44</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-hatta/pWp8qWSh/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-shabab-al-ahli-dubai/6un4pCDn/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Shabab Al-Ahli Dubai</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>6.4</v>
+        <v>1.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6.67</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>24/09/2023 14:22</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>24/09/2023 15:15</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>24/09/2023 15:15</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:15</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-shabab-al-ahli-dubai/6un4pCDn/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-hatta/pWp8qWSh/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.67</v>
+        <v>6.3</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.36</v>
+        <v>10.27</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.68</v>
+        <v>4.97</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.82</v>
+        <v>7.25</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:36</t>
+          <t>27/10/2023 14:13</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.36</v>
+        <v>1.38</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>26/10/2023 13:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.79</v>
+        <v>1.22</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/10/2023 14:40</t>
+          <t>27/10/2023 13:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>6.3</v>
+        <v>2.67</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>10.27</v>
+        <v>2.36</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.97</v>
+        <v>3.68</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>7.25</v>
+        <v>3.82</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/10/2023 14:13</t>
+          <t>27/10/2023 14:36</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.38</v>
+        <v>2.36</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>26/10/2023 13:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.22</v>
+        <v>2.79</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/10/2023 13:29</t>
+          <t>27/10/2023 14:40</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-wasl/SYQu7QQG/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ajman/zLLLBlCo/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.16</v>
+        <v>6.03</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.11</v>
+        <v>6.39</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>6.03</v>
+        <v>4.16</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>6.39</v>
+        <v>4.11</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.15</v>
+        <v>5.34</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.12</v>
+        <v>6.2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:08</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>8.300000000000001</v>
+        <v>4.82</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>9.91</v>
+        <v>5.34</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>13.92</v>
+        <v>1.5</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>28/10/2023 12:42</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>16.92</v>
+        <v>1.42</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>28/10/2023 14:43</t>
+          <t>28/10/2023 14:32</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-emirates-club/EBKPA8Ri/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-jazira/lrSy86BA/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>5.34</v>
+        <v>1.15</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6.2</v>
+        <v>1.12</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:08</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.82</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.34</v>
+        <v>9.91</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>13.92</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>28/10/2023 12:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.42</v>
+        <v>16.92</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>28/10/2023 14:32</t>
+          <t>28/10/2023 14:43</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-jazira/lrSy86BA/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-emirates-club/EBKPA8Ri/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Hatta</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>02/11/2023 16:23</t>
+          <t>27/10/2023 17:43</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/11/2023 13:17</t>
+          <t>03/11/2023 13:37</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.87</v>
+        <v>4.36</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>02/11/2023 16:23</t>
+          <t>27/10/2023 17:43</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.38</v>
+        <v>4.09</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/11/2023 13:17</t>
+          <t>03/11/2023 13:37</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.58</v>
+        <v>4.86</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>02/11/2023 16:23</t>
+          <t>27/10/2023 17:43</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.33</v>
+        <v>5.2</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/11/2023 13:17</t>
+          <t>03/11/2023 13:36</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-hatta/SlF3M5Q3/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-bataeh/nwb6NoBc/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>27/10/2023 17:43</t>
+          <t>02/11/2023 16:23</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/11/2023 13:37</t>
+          <t>03/11/2023 13:17</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.36</v>
+        <v>3.87</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>27/10/2023 17:43</t>
+          <t>02/11/2023 16:23</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.09</v>
+        <v>4.38</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/11/2023 13:37</t>
+          <t>03/11/2023 13:17</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.86</v>
+        <v>3.58</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>27/10/2023 17:43</t>
+          <t>02/11/2023 16:23</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>5.2</v>
+        <v>4.33</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/11/2023 13:36</t>
+          <t>03/11/2023 13:17</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-bataeh/nwb6NoBc/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-hatta/SlF3M5Q3/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>1.67</v>
+        <v>3.65</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,48 +5748,48 @@
         </is>
       </c>
       <c r="L58" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>1.86</v>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:42</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>28/11/2023 21:13</t>
         </is>
       </c>
-      <c r="P58" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:42</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
       <c r="T58" t="n">
-        <v>3.65</v>
+        <v>1.83</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/12/2023 13:42</t>
+          <t>01/12/2023 13:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
         <v>3.65</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:41</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:44</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>01/12/2023 13:43</t>
+          <t>01/12/2023 13:42</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,1294 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-al-jazira/tKgREEOf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45268.57291666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>08/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>08/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>08/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-bani-yas/SUUeUgOs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45268.57291666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>08/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>08/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>08/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-jazira-ajman/fNcVDYw1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45268.6875</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-al-wasl/8plPZF0K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45268.6875</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>7</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Emirates Club</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>07/12/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:20</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>07/12/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:24</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>07/12/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:20</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-emirates-club/xnmzDhg7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45269.57291666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:35</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:35</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:35</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-sharjah/j9wUYZFQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45269.57291666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-nasr/UgkLzdoE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45269.6875</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>05/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-ain/GxnvCC8D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45275.57291666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Emirates Club</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-al-jazira/4C33mZUJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45275.57291666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:38</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>15/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-bataeh/jXLGPVxD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45275.6875</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>11/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-sharjah-khorfakkan/IJN8Ri80/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45275.6875</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-shabab-al-ahli-dubai/0rT3SXhf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45276.57291666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-ittihad-kalba/dAMCQBN6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45276.57291666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-al-nasr/27PKOkhJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45276.6875</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-al-wahda/MiUaTDwl/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Al Sharjah</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>4</v>
-      </c>
       <c r="J67" t="n">
-        <v>18.05</v>
+        <v>3.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>08/12/2023 14:35</t>
+          <t>05/12/2023 15:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>10.68</v>
+        <v>5.71</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>9.18</v>
+        <v>3.69</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>08/12/2023 14:35</t>
+          <t>05/12/2023 15:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>6.38</v>
+        <v>4.73</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,15 +6600,15 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.1</v>
+        <v>1.97</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>08/12/2023 14:35</t>
+          <t>05/12/2023 15:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-sharjah/j9wUYZFQ/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-nasr/UgkLzdoE/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>3.39</v>
+        <v>18.05</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>05/12/2023 15:42</t>
+          <t>08/12/2023 14:35</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5.71</v>
+        <v>10.68</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,15 +6676,15 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.69</v>
+        <v>9.18</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>05/12/2023 15:42</t>
+          <t>08/12/2023 14:35</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.73</v>
+        <v>6.38</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6692,15 +6692,15 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.97</v>
+        <v>1.1</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>05/12/2023 15:42</t>
+          <t>08/12/2023 14:35</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-nasr/UgkLzdoE/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-sharjah/j9wUYZFQ/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>1.46</v>
+        <v>2.92</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.45</v>
+        <v>3.37</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>16/12/2023 13:35</t>
+          <t>16/12/2023 13:44</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.82</v>
+        <v>3.61</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>5.12</v>
+        <v>3.81</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.25</v>
+        <v>2.19</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>6.07</v>
+        <v>2.06</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-ittihad-kalba/dAMCQBN6/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-al-nasr/27PKOkhJ/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.92</v>
+        <v>1.46</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,48 +7312,48 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.37</v>
+        <v>1.45</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>16/12/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
           <t>16/12/2023 13:44</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="O75" t="inlineStr">
+      <c r="R75" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S75" t="inlineStr">
         <is>
           <t>11/12/2023 19:12</t>
         </is>
       </c>
-      <c r="P75" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="Q75" t="inlineStr">
+      <c r="T75" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="U75" t="inlineStr">
         <is>
           <t>16/12/2023 13:44</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>11/12/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>16/12/2023 13:44</t>
-        </is>
-      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-al-nasr/27PKOkhJ/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-ittihad-kalba/dAMCQBN6/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,98 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-al-wahda/MiUaTDwl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45280.57291666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>20/12/2023 13:38</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>20/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>20/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-khorfakkan/KrvszPf3/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>3.33</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.23</v>
+        <v>3.73</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.77</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.42</v>
+        <v>3.93</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/09/2023 15:11</t>
+          <t>23/09/2023 15:17</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/09/2023 15:11</t>
+          <t>23/09/2023 15:17</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-jazira/x6s0ohbt/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-sharjah/bytlvyiD/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>3.33</v>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.73</v>
+        <v>4.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.77</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.93</v>
+        <v>4.42</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/09/2023 15:17</t>
+          <t>23/09/2023 15:11</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/09/2023 15:17</t>
+          <t>23/09/2023 15:11</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-al-sharjah/bytlvyiD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-jazira/x6s0ohbt/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Shabab Al-Ahli Dubai</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
       <c r="J20" t="n">
-        <v>6.4</v>
+        <v>1.36</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6.67</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>24/09/2023 14:22</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>24/09/2023 15:15</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>24/09/2023 15:15</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>24/09/2023 15:15</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-shabab-al-ahli-dubai/6un4pCDn/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-hatta/pWp8qWSh/</t>
         </is>
       </c>
     </row>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.36</v>
+        <v>6.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>6.67</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24/09/2023 14:22</t>
+          <t>24/09/2023 15:15</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>5.48</v>
+        <v>5.03</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>6.54</v>
+        <v>4.85</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,15 +2368,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>6.99</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>10.02</v>
+        <v>1.44</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-hatta/pWp8qWSh/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-shabab-al-ahli-dubai/6un4pCDn/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.33</v>
+        <v>3.08</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.31</v>
+        <v>4.35</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/11/2023 13:36</t>
+          <t>25/11/2023 13:43</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>5.27</v>
+        <v>3.72</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>5.9</v>
+        <v>4.42</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25/11/2023 13:36</t>
+          <t>25/11/2023 13:43</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>8.220000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>8.33</v>
+        <v>1.69</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>25/11/2023 13:36</t>
+          <t>25/11/2023 13:43</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-emirates-club/63dfCL2d/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-bani-yas/6uE7LPuA/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>3.08</v>
+        <v>1.33</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.35</v>
+        <v>1.31</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>25/11/2023 13:43</t>
+          <t>25/11/2023 13:36</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.72</v>
+        <v>5.27</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.42</v>
+        <v>5.9</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>25/11/2023 13:43</t>
+          <t>25/11/2023 13:36</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.09</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.69</v>
+        <v>8.33</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>25/11/2023 13:43</t>
+          <t>25/11/2023 13:36</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-bani-yas/6uE7LPuA/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-emirates-club/63dfCL2d/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>3.39</v>
+        <v>18.05</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>05/12/2023 15:42</t>
+          <t>08/12/2023 14:35</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5.71</v>
+        <v>10.68</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.69</v>
+        <v>9.18</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>05/12/2023 15:42</t>
+          <t>08/12/2023 14:35</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.73</v>
+        <v>6.38</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,15 +6600,15 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.97</v>
+        <v>1.1</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>05/12/2023 15:42</t>
+          <t>08/12/2023 14:35</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-nasr/UgkLzdoE/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-sharjah/j9wUYZFQ/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Al Sharjah</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
       <c r="J68" t="n">
-        <v>18.05</v>
+        <v>3.39</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>08/12/2023 14:35</t>
+          <t>05/12/2023 15:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>10.68</v>
+        <v>5.71</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,15 +6676,15 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>9.18</v>
+        <v>3.69</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>08/12/2023 14:35</t>
+          <t>05/12/2023 15:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>6.38</v>
+        <v>4.73</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6692,15 +6692,15 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.1</v>
+        <v>1.97</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>08/12/2023 14:35</t>
+          <t>05/12/2023 15:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-sharjah/j9wUYZFQ/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-nasr/UgkLzdoE/</t>
         </is>
       </c>
     </row>
@@ -7538,6 +7538,98 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-khorfakkan/KrvszPf3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45280.6875</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>15/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-sharjah-shabab-al-ahli-dubai/88zwy5uc/</t>
         </is>
       </c>
     </row>

--- a/2023/united-arab-emirates_uae-league_2023-2024.xlsx
+++ b/2023/united-arab-emirates_uae-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,63 +1409,63 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.96</v>
+        <v>3.31</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8.74</v>
+        <v>3.66</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.27</v>
+        <v>3.67</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>6.07</v>
+        <v>3.73</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>24/08/2023 22:39</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-ain/h0S0k1aE/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ittihad-kalba/678yqaxr/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.31</v>
+        <v>6.96</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.66</v>
+        <v>8.74</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.67</v>
+        <v>5.27</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.73</v>
+        <v>6.07</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.01</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>24/08/2023 22:39</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-ittihad-kalba/678yqaxr/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/hatta-al-ain/h0S0k1aE/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>3.93</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>9.51</v>
+        <v>4.14</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>16/09/2023 18:13</t>
+          <t>19/09/2023 16:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>9.550000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/09/2023 17:52</t>
+          <t>23/09/2023 17:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Emirates Club</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.01</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.93</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.14</v>
+        <v>9.51</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/09/2023 16:42</t>
+          <t>16/09/2023 18:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/09/2023 17:54</t>
+          <t>23/09/2023 17:52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-emirates-club/pYypuHy7/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-ain-ajman/0tKW2KTD/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>6.03</v>
+        <v>4.16</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>20/10/2023 17:43</t>
+          <t>23/10/2023 17:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>6.39</v>
+        <v>4.11</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/10/2023 17:06</t>
+          <t>27/10/2023 16:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.16</v>
+        <v>6.03</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>23/10/2023 17:42</t>
+          <t>20/10/2023 17:43</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.11</v>
+        <v>6.39</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/10/2023 16:59</t>
+          <t>27/10/2023 17:06</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wahda-ittihad-kalba/b3xwm5Zp/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-nasr/8YJT9Stb/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.24</v>
+        <v>2.39</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,48 +5472,48 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>26/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
           <t>26/11/2023 13:35</t>
         </is>
       </c>
-      <c r="N55" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>20/11/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P55" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:35</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>20/11/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T55" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:35</t>
-        </is>
-      </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-nasr/E5HFJ3AM/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-ajman/dU6KINPS/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.39</v>
+        <v>2.24</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.18</v>
+        <v>2.82</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>26/11/2023 13:41</t>
+          <t>26/11/2023 13:35</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.6</v>
+        <v>3.76</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>26/11/2023 13:41</t>
+          <t>26/11/2023 13:35</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.24</v>
+        <v>2.36</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-ajman/dU6KINPS/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ittihad-kalba-al-nasr/E5HFJ3AM/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Emirates Club</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Hatta</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
         <v>3.65</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:41</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:44</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
-      <c r="T58" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/12/2023 13:43</t>
+          <t>01/12/2023 13:42</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Hatta</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>1.67</v>
+        <v>3.65</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,48 +5840,48 @@
         </is>
       </c>
       <c r="L59" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>1.86</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:42</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>28/11/2023 21:13</t>
         </is>
       </c>
-      <c r="P59" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>01/12/2023 13:42</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>28/11/2023 21:13</t>
-        </is>
-      </c>
       <c r="T59" t="n">
-        <v>3.65</v>
+        <v>1.83</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>01/12/2023 13:42</t>
+          <t>01/12/2023 13:43</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-hatta/86eJGzfr/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/emirates-club-ittihad-kalba/ncfNFf9l/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.52</v>
+        <v>1.31</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.22</v>
+        <v>1.37</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>08/12/2023 13:44</t>
+          <t>08/12/2023 13:43</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.46</v>
+        <v>5.65</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.58</v>
+        <v>5.69</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08/12/2023 13:44</t>
+          <t>08/12/2023 13:43</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.59</v>
+        <v>6.8</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.17</v>
+        <v>6.91</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>08/12/2023 13:44</t>
+          <t>08/12/2023 13:43</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-bani-yas/SUUeUgOs/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-jazira-ajman/fNcVDYw1/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Ajman</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.31</v>
+        <v>2.52</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.37</v>
+        <v>2.22</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/12/2023 13:43</t>
+          <t>08/12/2023 13:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>5.65</v>
+        <v>3.46</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>5.69</v>
+        <v>3.58</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/12/2023 13:43</t>
+          <t>08/12/2023 13:44</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.8</v>
+        <v>2.59</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.91</v>
+        <v>3.17</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/12/2023 13:43</t>
+          <t>08/12/2023 13:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-jazira-ajman/fNcVDYw1/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-bani-yas/SUUeUgOs/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.92</v>
+        <v>1.46</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,48 +7220,48 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.37</v>
+        <v>1.45</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>16/12/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>11/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
           <t>16/12/2023 13:44</t>
         </is>
       </c>
-      <c r="N74" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="O74" t="inlineStr">
+      <c r="R74" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S74" t="inlineStr">
         <is>
           <t>11/12/2023 19:12</t>
         </is>
       </c>
-      <c r="P74" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="Q74" t="inlineStr">
+      <c r="T74" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="U74" t="inlineStr">
         <is>
           <t>16/12/2023 13:44</t>
         </is>
       </c>
-      <c r="R74" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>11/12/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T74" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>16/12/2023 13:44</t>
-        </is>
-      </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-al-nasr/27PKOkhJ/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-ittihad-kalba/dAMCQBN6/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.46</v>
+        <v>2.92</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.45</v>
+        <v>3.37</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>16/12/2023 13:35</t>
+          <t>16/12/2023 13:44</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.82</v>
+        <v>3.61</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>5.12</v>
+        <v>3.81</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.25</v>
+        <v>2.19</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.07</v>
+        <v>2.06</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-wasl-ittihad-kalba/dAMCQBN6/</t>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/ajman-al-nasr/27PKOkhJ/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,650 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-sharjah-shabab-al-ahli-dubai/88zwy5uc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45283.57291666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Emirates Club</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-nasr-emirates-club/4znjvVi6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45283.57291666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Al Jazira</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Hatta</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:38</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-jazira-hatta/r327ngpQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45283.6875</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/bani-yas-ittihad-kalba/EogwsX7m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45284.57291666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-bataeh-al-ain/rRpfwk7C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45284.57291666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/al-sharjah-ajman/ADnnuBx0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45284.6875</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Al Wahda</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/khorfakkan-al-wahda/zefZsDhs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>united-arab-emirates</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>uae-league</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45284.6875</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Shabab Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Al Wasl</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>20/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/united-arab-emirates/uae-league/shabab-al-ahli-dubai-al-wasl/dArrtiNg/</t>
         </is>
       </c>
     </row>
